--- a/data/manualDetection/cultivation/originalFiles/cilia_numbers_clemens_automatic.xlsx
+++ b/data/manualDetection/cultivation/originalFiles/cilia_numbers_clemens_automatic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\git\gitHub\SI_lengthOfPrimaryCilia\data\manualDetection\cultivation\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084974D8-BC0C-4994-B7EF-F482D1AA824B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD2FE7-5BEB-4539-B897-8C074698CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -60,22 +60,22 @@
     <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_7.czi</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_8.czi</t>
+    <t>fileName</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_9.czi</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_1.czi</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_10.czi</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_2.czi</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_11.czi</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_3.czi</t>
   </si>
   <si>
-    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_12.czi</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_4.czi</t>
   </si>
   <si>
-    <t>fileName</t>
+    <t>190815_EV38_2_Collagen_ITSwithAsc+Dexa_63x_zstack_5.czi</t>
   </si>
 </sst>
 </file>
@@ -111,12 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -432,21 +427,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}">
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -458,9 +453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -468,11 +463,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -480,11 +474,10 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -492,11 +485,10 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -504,11 +496,10 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -516,11 +507,10 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -528,11 +518,10 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -540,11 +529,10 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -552,11 +540,10 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -564,11 +551,10 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -576,11 +562,10 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -588,11 +573,10 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -600,11 +584,10 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -612,11 +595,10 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -624,11 +606,10 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -636,11 +617,10 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -648,11 +628,10 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -660,11 +639,10 @@
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -672,523 +650,488 @@
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
         <v>22</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
         <v>26</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
         <v>21</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
         <v>28</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
         <v>27</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
         <v>29</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
         <v>25</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
         <v>19</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="5">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
         <v>5</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
         <v>10</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
         <v>12</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
         <v>13</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
         <v>9</v>
       </c>
       <c r="C42">
         <v>10</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
         <v>8</v>
       </c>
       <c r="C43">
         <v>11</v>
       </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
         <v>11</v>
       </c>
       <c r="C44">
         <v>12</v>
       </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
         <v>15</v>
       </c>
       <c r="C45">
         <v>13</v>
       </c>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
         <v>18</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
         <v>17</v>
       </c>
       <c r="C47">
         <v>15</v>
       </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="5">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
         <v>16</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" s="5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
         <v>14</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
         <v>19</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
         <v>20</v>
       </c>
       <c r="C51">
         <v>19</v>
       </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
         <v>21</v>
       </c>
       <c r="C52">
         <v>20</v>
       </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
         <v>23</v>
       </c>
       <c r="C53">
         <v>21</v>
       </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
         <v>22</v>
       </c>
       <c r="C54">
         <v>22</v>
       </c>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
         <v>27</v>
       </c>
       <c r="C55">
         <v>23</v>
       </c>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B56" s="3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
         <v>26</v>
       </c>
       <c r="C56">
         <v>24</v>
       </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
         <v>24</v>
       </c>
       <c r="C57">
         <v>25</v>
       </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B58" s="3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
         <v>28</v>
       </c>
       <c r="C58">
         <v>26</v>
       </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
         <v>25</v>
       </c>
       <c r="C59">
         <v>27</v>
       </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
         <v>30</v>
       </c>
       <c r="C60">
         <v>28</v>
       </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
         <v>29</v>
       </c>
       <c r="C61">
         <v>29</v>
       </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B62" s="3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
         <v>7</v>
       </c>
       <c r="C62">
         <v>30</v>
       </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="C63">
@@ -1197,215 +1140,199 @@
       <c r="D63" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="3">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="3">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67">
         <v>4</v>
       </c>
       <c r="C67">
         <v>5</v>
       </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="3">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
         <v>6</v>
       </c>
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="3">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69">
         <v>9</v>
       </c>
       <c r="C69">
         <v>7</v>
       </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="3">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
         <v>8</v>
       </c>
       <c r="C70">
         <v>8</v>
       </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="3">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
         <v>11</v>
       </c>
       <c r="C71">
         <v>9</v>
       </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="3">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
         <v>13</v>
       </c>
       <c r="C72">
         <v>10</v>
       </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="3">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
         <v>10</v>
       </c>
       <c r="C73">
         <v>11</v>
       </c>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="3">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
         <v>5</v>
       </c>
       <c r="C74">
         <v>12</v>
       </c>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="3">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75">
         <v>7</v>
       </c>
       <c r="C75">
         <v>13</v>
       </c>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="3">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76">
         <v>12</v>
       </c>
       <c r="C76">
         <v>14</v>
       </c>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
         <v>15</v>
       </c>
       <c r="C77">
         <v>15</v>
       </c>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="3">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78">
         <v>14</v>
       </c>
       <c r="C78">
         <v>16</v>
       </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="5">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79">
         <v>16</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80">
         <v>17</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="4" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
         <v>2</v>
       </c>
       <c r="C81">
@@ -1414,97 +1341,89 @@
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="4">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
         <v>18</v>
       </c>
       <c r="C82">
         <v>20</v>
       </c>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="4">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
         <v>19</v>
       </c>
       <c r="C83">
         <v>21</v>
       </c>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="4">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
         <v>20</v>
       </c>
       <c r="C84">
         <v>22</v>
       </c>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="4">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85">
         <v>24</v>
       </c>
       <c r="C85">
         <v>23</v>
       </c>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="4">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86">
         <v>21</v>
       </c>
       <c r="C86">
         <v>24</v>
       </c>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="4">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87">
         <v>22</v>
       </c>
       <c r="C87">
         <v>25</v>
       </c>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="4">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88">
         <v>25</v>
       </c>
       <c r="C88">
         <v>26</v>
       </c>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
         <v>2</v>
       </c>
       <c r="C89">
@@ -1513,325 +1432,299 @@
       <c r="D89" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="4">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90">
         <v>23</v>
       </c>
       <c r="C90">
         <v>28</v>
       </c>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
         <v>2</v>
       </c>
       <c r="C91">
         <v>29</v>
       </c>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="4">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92">
         <v>2</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="4">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="4">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="4">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95">
         <v>4</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="4">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96">
         <v>7</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="4">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97">
         <v>6</v>
       </c>
       <c r="C97">
         <v>6</v>
       </c>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="5">
-        <v>5</v>
-      </c>
-      <c r="C98" s="5">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99">
         <v>8</v>
       </c>
       <c r="C99">
         <v>8</v>
       </c>
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="5">
-        <v>9</v>
-      </c>
-      <c r="C100" s="5">
-        <v>9</v>
-      </c>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="5">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101">
         <v>13</v>
       </c>
-      <c r="C101" s="5">
-        <v>10</v>
-      </c>
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="5">
-        <v>11</v>
-      </c>
-      <c r="C102" s="5">
-        <v>11</v>
-      </c>
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="5">
-        <v>10</v>
-      </c>
-      <c r="C103" s="5">
-        <v>12</v>
-      </c>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="5">
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104">
         <v>15</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104">
         <v>13</v>
       </c>
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="5">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105">
         <v>16</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105">
         <v>14</v>
       </c>
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="5">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>15</v>
       </c>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="5">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107">
         <v>14</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107">
         <v>16</v>
       </c>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="5">
-        <v>12</v>
-      </c>
-      <c r="C108" s="5">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108">
+        <v>12</v>
+      </c>
+      <c r="C108">
         <v>17</v>
       </c>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="5">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109">
         <v>21</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109">
         <v>18</v>
       </c>
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="5">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110">
         <v>22</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110">
         <v>19</v>
       </c>
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="5">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111">
         <v>18</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111">
         <v>20</v>
       </c>
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="5">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112">
         <v>19</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112">
         <v>21</v>
       </c>
-      <c r="E112" s="5"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="5">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113">
         <v>20</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113">
         <v>22</v>
       </c>
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="5">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114">
         <v>17</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114">
         <v>23</v>
       </c>
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C115" s="5">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>24</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
       </c>
-      <c r="E115" s="5"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>8</v>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
       </c>
       <c r="B116">
         <v>23</v>
@@ -1839,11 +1732,10 @@
       <c r="C116">
         <v>25</v>
       </c>
-      <c r="E116" s="5"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
-        <v>8</v>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -1854,11 +1746,10 @@
       <c r="D117" t="s">
         <v>1</v>
       </c>
-      <c r="E117" s="5"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>9</v>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -1867,9 +1758,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>9</v>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -1878,9 +1769,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>9</v>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -1889,9 +1780,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>9</v>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -1900,9 +1791,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>9</v>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -1911,9 +1802,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>9</v>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -1922,9 +1813,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>9</v>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>12</v>
       </c>
       <c r="B124">
         <v>7</v>
@@ -1933,9 +1824,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>9</v>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>12</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -1944,9 +1835,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>9</v>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>12</v>
       </c>
       <c r="B126">
         <v>9</v>
@@ -1955,9 +1846,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
-        <v>9</v>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>12</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -1966,9 +1857,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
-        <v>9</v>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>12</v>
       </c>
       <c r="B128">
         <v>12</v>
@@ -1977,9 +1868,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
-        <v>9</v>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>12</v>
       </c>
       <c r="B129">
         <v>11</v>
@@ -1988,9 +1879,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
-        <v>9</v>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>12</v>
       </c>
       <c r="B130">
         <v>14</v>
@@ -1999,9 +1890,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
-        <v>9</v>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>12</v>
       </c>
       <c r="B131">
         <v>13</v>
@@ -2010,9 +1901,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
-        <v>9</v>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>12</v>
       </c>
       <c r="B132">
         <v>16</v>
@@ -2021,9 +1912,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
-        <v>9</v>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>12</v>
       </c>
       <c r="B133">
         <v>18</v>
@@ -2032,9 +1923,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
-        <v>9</v>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>12</v>
       </c>
       <c r="B134">
         <v>17</v>
@@ -2043,9 +1934,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
-        <v>9</v>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>12</v>
       </c>
       <c r="B135">
         <v>19</v>
@@ -2054,9 +1945,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
-        <v>9</v>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
       </c>
       <c r="B136">
         <v>20</v>
@@ -2065,9 +1956,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
-        <v>9</v>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>12</v>
       </c>
       <c r="B137">
         <v>24</v>
@@ -2076,9 +1967,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>9</v>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>12</v>
       </c>
       <c r="B138">
         <v>22</v>
@@ -2087,9 +1978,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
-        <v>9</v>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>12</v>
       </c>
       <c r="B139">
         <v>21</v>
@@ -2098,9 +1989,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
-        <v>9</v>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>12</v>
       </c>
       <c r="B140">
         <v>23</v>
@@ -2109,9 +2000,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
-        <v>9</v>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>12</v>
       </c>
       <c r="B141">
         <v>25</v>
@@ -2120,9 +2011,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
-        <v>9</v>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>12</v>
       </c>
       <c r="B142">
         <v>26</v>
@@ -2131,9 +2022,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>9</v>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>12</v>
       </c>
       <c r="B143">
         <v>27</v>
@@ -2142,9 +2033,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
-        <v>9</v>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>12</v>
       </c>
       <c r="B144">
         <v>28</v>
@@ -2153,9 +2044,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
-        <v>9</v>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>12</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -2164,9 +2055,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>9</v>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>12</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -2178,366 +2069,361 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" s="5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147">
         <v>15</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147">
         <v>30</v>
       </c>
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" s="5">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148">
         <v>4</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148">
         <v>1</v>
       </c>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="1">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149">
         <v>2</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="1">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150">
         <v>1</v>
       </c>
       <c r="C150">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="1">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="1">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152">
         <v>5</v>
       </c>
       <c r="C152">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="1">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153">
         <v>6</v>
       </c>
       <c r="C153">
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="1">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154">
         <v>9</v>
       </c>
       <c r="C154">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" s="1">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155">
         <v>8</v>
       </c>
       <c r="C155">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B156" s="1">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156">
         <v>7</v>
       </c>
       <c r="C156">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="1">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157">
         <v>12</v>
       </c>
       <c r="C157">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158" s="1">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158">
         <v>11</v>
       </c>
       <c r="C158">
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B159" s="1">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159">
         <v>13</v>
       </c>
       <c r="C159">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B160" s="1">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160">
         <v>10</v>
       </c>
       <c r="C160">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" s="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161">
         <v>14</v>
       </c>
       <c r="C161">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162">
         <v>17</v>
       </c>
       <c r="C162">
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" s="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163">
         <v>16</v>
       </c>
       <c r="C163">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B164" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164">
         <v>15</v>
       </c>
       <c r="C164">
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165">
         <v>18</v>
       </c>
       <c r="C165">
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166">
         <v>5</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" s="1">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167">
         <v>1</v>
       </c>
       <c r="C167">
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" s="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169">
         <v>2</v>
       </c>
       <c r="C169">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B170" s="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170">
         <v>6</v>
       </c>
       <c r="C170">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171">
         <v>3</v>
       </c>
       <c r="C171">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172">
         <v>7</v>
       </c>
       <c r="C172">
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173">
         <v>10</v>
       </c>
       <c r="C173">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174">
         <v>8</v>
       </c>
       <c r="C174">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175">
         <v>9</v>
       </c>
       <c r="C175">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C176" s="5">
-        <v>11</v>
-      </c>
-      <c r="D176" s="5"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="5">
-        <v>11</v>
-      </c>
-      <c r="C177" s="5">
-        <v>12</v>
-      </c>
-      <c r="D177" s="5"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B178" s="5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177">
+        <v>11</v>
+      </c>
+      <c r="C177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178">
         <v>13</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178">
         <v>13</v>
       </c>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
-        <v>11</v>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>6</v>
       </c>
       <c r="B179">
         <v>12</v>
@@ -2546,9 +2432,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="5" t="s">
-        <v>11</v>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
       </c>
       <c r="B180">
         <v>14</v>
@@ -2557,9 +2443,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="5" t="s">
-        <v>11</v>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>6</v>
       </c>
       <c r="B181">
         <v>15</v>
@@ -2568,9 +2454,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
-        <v>11</v>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
       </c>
       <c r="B182">
         <v>16</v>
@@ -2579,9 +2465,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
-        <v>11</v>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>6</v>
       </c>
       <c r="B183">
         <v>18</v>
@@ -2590,9 +2476,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="5" t="s">
-        <v>11</v>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
       </c>
       <c r="B184">
         <v>17</v>

--- a/data/manualDetection/cultivation/originalFiles/cilia_numbers_clemens_automatic.xlsx
+++ b/data/manualDetection/cultivation/originalFiles/cilia_numbers_clemens_automatic.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Documents\git\gitHub\SI_lengthOfPrimaryCilia\data\manualDetection\cultivation\originalFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD2FE7-5BEB-4539-B897-8C074698CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715BD25-E1DB-4694-92A6-FA2E4E834D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$D$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="13">
   <si>
     <t>comments</t>
   </si>
@@ -131,9 +131,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +171,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +277,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,13 +430,15 @@
   <dimension ref="A1:D184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -458,7 +460,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -469,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -479,8 +481,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -491,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -502,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -513,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -524,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -535,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -546,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -557,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -568,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -579,7 +581,7 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -590,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -601,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -612,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -623,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -634,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -645,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -656,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -678,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="B22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -689,7 +691,7 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -700,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -711,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -722,7 +724,7 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -733,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -744,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -755,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -766,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -777,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -813,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -835,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -845,8 +847,8 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37">
-        <v>3</v>
+      <c r="B37" t="s">
+        <v>2</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -856,8 +858,8 @@
       <c r="A38" t="s">
         <v>9</v>
       </c>
-      <c r="B38">
-        <v>6</v>
+      <c r="B38" t="s">
+        <v>2</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -868,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -879,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -890,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -901,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -911,8 +913,8 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43">
-        <v>8</v>
+      <c r="B43" t="s">
+        <v>2</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -923,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>12</v>
@@ -934,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -945,7 +947,7 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>14</v>
@@ -956,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>15</v>
@@ -967,7 +969,7 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>16</v>
@@ -978,7 +980,7 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>17</v>
@@ -989,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <v>18</v>
@@ -1000,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>19</v>
@@ -1011,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>20</v>
@@ -1022,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>21</v>
@@ -1033,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>22</v>
@@ -1044,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>23</v>
@@ -1055,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <v>24</v>
@@ -1066,7 +1068,7 @@
         <v>9</v>
       </c>
       <c r="B57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>25</v>
@@ -1077,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>26</v>
@@ -1088,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>27</v>
@@ -1099,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>28</v>
@@ -1110,7 +1112,7 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C61">
         <v>29</v>
@@ -1121,7 +1123,7 @@
         <v>9</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>30</v>
@@ -1321,8 +1323,8 @@
       <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="B80">
-        <v>17</v>
+      <c r="B80" t="s">
+        <v>2</v>
       </c>
       <c r="C80">
         <v>18</v>
@@ -1347,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -1358,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>21</v>
@@ -1369,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84">
         <v>22</v>
@@ -1380,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="B85">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>23</v>
@@ -1391,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>24</v>
@@ -1402,7 +1404,7 @@
         <v>10</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>25</v>
@@ -1413,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88">
         <v>26</v>
@@ -1438,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>28</v>
@@ -1949,8 +1951,8 @@
       <c r="A136" t="s">
         <v>12</v>
       </c>
-      <c r="B136">
-        <v>20</v>
+      <c r="B136" t="s">
+        <v>2</v>
       </c>
       <c r="C136">
         <v>19</v>
@@ -1961,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="B137">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C137">
         <v>20</v>
@@ -1972,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="B138">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138">
         <v>21</v>
@@ -1983,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="B139">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139">
         <v>22</v>
@@ -1994,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="B140">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C140">
         <v>23</v>
@@ -2005,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="B141">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C141">
         <v>24</v>
@@ -2016,7 +2018,7 @@
         <v>12</v>
       </c>
       <c r="B142">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C142">
         <v>25</v>
@@ -2027,7 +2029,7 @@
         <v>12</v>
       </c>
       <c r="B143">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C143">
         <v>26</v>
@@ -2038,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="B144">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C144">
         <v>27</v>
@@ -2392,8 +2394,8 @@
       <c r="A176" t="s">
         <v>6</v>
       </c>
-      <c r="B176" t="s">
-        <v>2</v>
+      <c r="B176">
+        <v>12</v>
       </c>
       <c r="C176">
         <v>11</v>
@@ -2415,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="B178">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C178">
         <v>13</v>
@@ -2426,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="B179">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C179">
         <v>14</v>
@@ -2437,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="B180">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C180">
         <v>15</v>
@@ -2448,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="B181">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C181">
         <v>16</v>
@@ -2459,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B182">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C182">
         <v>17</v>
@@ -2470,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="B183">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C183">
         <v>18</v>
@@ -2481,13 +2483,14 @@
         <v>6</v>
       </c>
       <c r="B184">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C184">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D184" xr:uid="{2EAF1B93-8D5A-4DDF-9B98-D3A4298A3DAA}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>